--- a/biology/Botanique/Hydrangea_heteromalla/Hydrangea_heteromalla.xlsx
+++ b/biology/Botanique/Hydrangea_heteromalla/Hydrangea_heteromalla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrangea heteromalla est une espèce du genre Hydrangea originaire d'Asie tempérée et tropicale : Chine, Inde, Népal, Myanmar et Vietnam.
-Synonymes[1] : Hydrangea bretschneideri Dippel, Hydrangea dumicola W. W. Sm., Hydrangea vestita Wall. Hydrangea xanthoneura Diels
+Synonymes : Hydrangea bretschneideri Dippel, Hydrangea dumicola W. W. Sm., Hydrangea vestita Wall. Hydrangea xanthoneura Diels
 Nom chinois : 微绒绣球
 On compte deux variétés botaniques :
 Hydrangea heteromalla var. mollis Rehder (1912)
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste caduc, d'assez grande taille, pouvant atteindre 5 m de haut.
 Les feuilles sont vert moyen, larges, ovales et opposées
@@ -549,10 +563,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce utilisée pour comme arbuste ornemental en situation ombragée ou semi-ombragée qui se trouve maintenant aisément en France. Elle exige un substrat acide à neutre.
-De nombreuses variétés, cultivars et hybrides horticoles sont disponibles, dont [2]:
+De nombreuses variétés, cultivars et hybrides horticoles sont disponibles, dont :
 Hyndrangea heteromalla ‘Bretschneideri’
 Hydrangea heteromalla ‘Gidie’
 Hydrangea heteromalla ‘Jermyns lace ’
